--- a/Spr/xls_forms/F22_I.xlsx
+++ b/Spr/xls_forms/F22_I.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21000" windowHeight="12225"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="F22(I)Control" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="208">
   <si>
     <t>Номер строки</t>
   </si>
@@ -601,9 +601,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>ДЛЯ КОНТРОЛЯ</t>
-  </si>
-  <si>
     <t>By_Shape</t>
   </si>
   <si>
@@ -646,7 +643,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1023,13 +1020,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1248,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,12 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,7 +1509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1527,7 +1544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1739,10 +1756,10 @@
   <dimension ref="A1:EA187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,99 +1772,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="71" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="71" t="s">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="75" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="76" t="s">
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="71" t="s">
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="85" t="s">
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="85"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="85"/>
-      <c r="BG1" s="85"/>
-      <c r="BH1" s="85"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
-      <c r="BK1" s="85"/>
-      <c r="BL1" s="85"/>
-      <c r="BM1" s="85"/>
-      <c r="BN1" s="85"/>
-      <c r="BO1" s="85"/>
-      <c r="BP1" s="85"/>
-      <c r="BQ1" s="85"/>
-      <c r="BR1" s="85"/>
-      <c r="BS1" s="85"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
       <c r="BT1" s="10"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
@@ -1910,141 +1927,141 @@
       <c r="EA1" s="1"/>
     </row>
     <row r="2" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="75" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="W2" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="71" t="s">
+      <c r="Z2" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="71" t="s">
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="71" t="s">
+      <c r="AK2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="71" t="s">
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="71" t="s">
+      <c r="AO2" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="71" t="s">
+      <c r="AP2" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" s="71" t="s">
+      <c r="AQ2" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" s="71" t="s">
+      <c r="AR2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" s="71" t="s">
+      <c r="AS2" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="71" t="s">
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="79" t="s">
+      <c r="AX2" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
-      <c r="BR2" s="85"/>
-      <c r="BS2" s="85"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="89"/>
       <c r="BT2" s="10"/>
       <c r="BU2" s="1"/>
       <c r="BV2" s="1"/>
@@ -2107,117 +2124,117 @@
       <c r="EA2" s="1"/>
     </row>
     <row r="3" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="71" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" s="71" t="s">
+      <c r="AB3" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" s="71" t="s">
+      <c r="AC3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="71" t="s">
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="AF3" s="71" t="s">
+      <c r="AF3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="71" t="s">
+      <c r="AG3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="AI3" s="71" t="s">
+      <c r="AI3" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="71" t="s">
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="71" t="s">
+      <c r="AL3" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="71" t="s">
+      <c r="AM3" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="71" t="s">
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="AT3" s="71" t="s">
+      <c r="AT3" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="AU3" s="81" t="s">
+      <c r="AU3" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AV3" s="71" t="s">
+      <c r="AV3" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="86"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="86"/>
-      <c r="BO3" s="86"/>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="86"/>
-      <c r="BR3" s="86"/>
-      <c r="BS3" s="86"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
       <c r="BT3" s="10"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
@@ -2280,88 +2297,88 @@
       <c r="EA3" s="1"/>
     </row>
     <row r="4" spans="1:131" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="3" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="83" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="93" t="s">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="BH4" s="93"/>
+      <c r="BH4" s="97"/>
       <c r="BI4" s="11" t="s">
         <v>142</v>
       </c>
       <c r="BJ4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BK4" s="88" t="s">
+      <c r="BK4" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="89" t="s">
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="89"/>
+      <c r="BN4" s="93"/>
       <c r="BO4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2555,70 +2572,70 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="90" t="s">
+      <c r="AY5" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="AZ5" s="91" t="s">
+      <c r="AZ5" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="BA5" s="91" t="s">
+      <c r="BA5" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="BB5" s="91" t="s">
+      <c r="BB5" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="BC5" s="91" t="s">
+      <c r="BC5" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="BD5" s="91" t="s">
+      <c r="BD5" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="BE5" s="91" t="s">
+      <c r="BE5" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="BF5" s="92" t="s">
+      <c r="BF5" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="BG5" s="93" t="s">
+      <c r="BG5" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="BH5" s="93" t="s">
+      <c r="BH5" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BI5" s="94" t="s">
+      <c r="BI5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BJ5" s="94" t="s">
+      <c r="BJ5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BK5" s="105" t="s">
+      <c r="BK5" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="BL5" s="87" t="s">
+      <c r="BL5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BM5" s="103" t="s">
+      <c r="BM5" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="BN5" s="104" t="s">
+      <c r="BN5" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="BO5" s="87" t="s">
+      <c r="BO5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BP5" s="87" t="s">
+      <c r="BP5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BQ5" s="94" t="s">
+      <c r="BQ5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BR5" s="94" t="s">
+      <c r="BR5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BS5" s="94" t="s">
+      <c r="BS5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="94" t="s">
+      <c r="BT5" s="98" t="s">
         <v>192</v>
       </c>
       <c r="BU5" s="1"/>
@@ -2832,28 +2849,28 @@
       <c r="AX6" s="14">
         <v>48</v>
       </c>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="93"/>
-      <c r="BH6" s="93"/>
-      <c r="BI6" s="94"/>
-      <c r="BJ6" s="94"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="103"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="94"/>
-      <c r="BR6" s="94"/>
-      <c r="BS6" s="94"/>
-      <c r="BT6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="98"/>
+      <c r="BJ6" s="98"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="98"/>
+      <c r="BR6" s="98"/>
+      <c r="BS6" s="98"/>
+      <c r="BT6" s="98"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
@@ -15135,155 +15152,57 @@
       <c r="DZ48" s="1"/>
       <c r="EA48" s="1"/>
     </row>
-    <row r="49" spans="1:131" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>196</v>
-      </c>
+    <row r="49" spans="1:131" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="25">
-        <v>0</v>
-      </c>
-      <c r="E49" s="25">
-        <v>0</v>
-      </c>
-      <c r="F49" s="25">
-        <v>0</v>
-      </c>
-      <c r="G49" s="25">
-        <v>0</v>
-      </c>
-      <c r="H49" s="25">
-        <v>0</v>
-      </c>
-      <c r="I49" s="25">
-        <v>0</v>
-      </c>
-      <c r="J49" s="25">
-        <v>0</v>
-      </c>
-      <c r="K49" s="25">
-        <v>0</v>
-      </c>
-      <c r="L49" s="25">
-        <v>0</v>
-      </c>
-      <c r="M49" s="25">
-        <v>0</v>
-      </c>
-      <c r="N49" s="25">
-        <v>0</v>
-      </c>
-      <c r="O49" s="25">
-        <v>0</v>
-      </c>
-      <c r="P49" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="25">
-        <v>0</v>
-      </c>
-      <c r="R49" s="25">
-        <v>0</v>
-      </c>
-      <c r="S49" s="25">
-        <v>0</v>
-      </c>
-      <c r="T49" s="25">
-        <v>0</v>
-      </c>
-      <c r="U49" s="25">
-        <v>0</v>
-      </c>
-      <c r="V49" s="25">
-        <v>0</v>
-      </c>
-      <c r="W49" s="25">
-        <v>0</v>
-      </c>
-      <c r="X49" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AO49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AW49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX49" s="25">
-        <v>0</v>
-      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25"/>
+      <c r="AI49" s="25"/>
+      <c r="AJ49" s="25"/>
+      <c r="AK49" s="25"/>
+      <c r="AL49" s="25"/>
+      <c r="AM49" s="25"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="25"/>
+      <c r="AP49" s="25"/>
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AS49" s="25"/>
+      <c r="AT49" s="25"/>
+      <c r="AU49" s="25"/>
+      <c r="AV49" s="25"/>
+      <c r="AW49" s="25"/>
+      <c r="AX49" s="25"/>
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -15367,196 +15286,196 @@
       <c r="EA49" s="1"/>
     </row>
     <row r="50" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="25">
-        <f>D49-D52</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="25">
-        <f t="shared" ref="E50:AX50" si="30">E49-E52</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="25">
+      <c r="D50" s="72">
+        <f>D100-D52</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="72">
+        <f t="shared" ref="E50:AX50" si="30">E100-E52</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I50" s="25">
+      <c r="I50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="N50" s="25">
+      <c r="N50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R50" s="25">
+      <c r="R50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S50" s="25">
+      <c r="S50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T50" s="25">
+      <c r="T50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U50" s="25">
+      <c r="U50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V50" s="25">
+      <c r="V50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W50" s="25">
+      <c r="W50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X50" s="25">
+      <c r="X50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="25">
+      <c r="Y50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="25">
+      <c r="Z50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="25">
+      <c r="AA50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="25">
+      <c r="AB50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="25">
+      <c r="AC50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="25">
+      <c r="AD50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="25">
+      <c r="AE50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="25">
+      <c r="AF50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AG50" s="25">
+      <c r="AG50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AH50" s="25">
+      <c r="AH50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="25">
+      <c r="AI50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AJ50" s="25">
+      <c r="AJ50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="25">
+      <c r="AK50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="25">
+      <c r="AL50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AM50" s="25">
+      <c r="AM50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="25">
+      <c r="AN50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="25">
+      <c r="AO50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AP50" s="25">
+      <c r="AP50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AQ50" s="25">
+      <c r="AQ50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AR50" s="25">
+      <c r="AR50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AS50" s="25">
+      <c r="AS50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AT50" s="25">
+      <c r="AT50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AU50" s="25">
+      <c r="AU50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AV50" s="25">
+      <c r="AV50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW50" s="25">
+      <c r="AW50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AX50" s="25">
+      <c r="AX50" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -15776,11 +15695,11 @@
       <c r="EA51" s="1"/>
     </row>
     <row r="52" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="47" t="s">
         <v>198</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>199</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="28">
@@ -16075,9 +15994,9 @@
       <c r="EA52" s="1"/>
     </row>
     <row r="53" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="50">
@@ -16372,7 +16291,7 @@
       <c r="EA53" s="1"/>
     </row>
     <row r="54" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="49"/>
       <c r="C54" s="1"/>
       <c r="D54" s="31"/>
@@ -16505,9 +16424,9 @@
       <c r="EA54" s="1"/>
     </row>
     <row r="55" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="28">
@@ -16802,9 +16721,9 @@
       <c r="EA55" s="1"/>
     </row>
     <row r="56" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="30">
@@ -17099,7 +17018,7 @@
       <c r="EA56" s="1"/>
     </row>
     <row r="57" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A57" s="98"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="27"/>
       <c r="C57" s="1"/>
       <c r="D57" s="26"/>
@@ -17232,9 +17151,9 @@
       <c r="EA57" s="1"/>
     </row>
     <row r="58" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="28">
@@ -17529,9 +17448,9 @@
       <c r="EA58" s="1"/>
     </row>
     <row r="59" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="30">
@@ -17961,7 +17880,7 @@
     <row r="61" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="34">
@@ -18391,7 +18310,7 @@
     <row r="63" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="34">
@@ -18821,7 +18740,7 @@
     <row r="65" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="34">
@@ -19250,8 +19169,8 @@
     </row>
     <row r="67" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="100" t="s">
-        <v>208</v>
+      <c r="B67" s="102" t="s">
+        <v>207</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="35">
@@ -19523,7 +19442,7 @@
     </row>
     <row r="68" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="101"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="15"/>
       <c r="D68" s="36">
         <f>D38</f>
@@ -19794,7 +19713,7 @@
     </row>
     <row r="69" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="101"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="15"/>
       <c r="D69" s="36">
         <f>D39</f>
@@ -20068,7 +19987,7 @@
     </row>
     <row r="70" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="101"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="15"/>
       <c r="D70" s="36">
         <f>D40</f>
@@ -20342,7 +20261,7 @@
     </row>
     <row r="71" spans="1:131" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="102"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33">
         <v>0</v>
@@ -20568,7 +20487,7 @@
       <c r="DZ71" s="1"/>
       <c r="EA71" s="1"/>
     </row>
-    <row r="72" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -20704,7 +20623,7 @@
       <c r="DZ72" s="1"/>
       <c r="EA72" s="1"/>
     </row>
-    <row r="73" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -20837,7 +20756,7 @@
       <c r="DZ73" s="1"/>
       <c r="EA73" s="1"/>
     </row>
-    <row r="74" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -20970,7 +20889,7 @@
       <c r="DZ74" s="1"/>
       <c r="EA74" s="1"/>
     </row>
-    <row r="75" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -21103,7 +21022,7 @@
       <c r="DZ75" s="1"/>
       <c r="EA75" s="1"/>
     </row>
-    <row r="76" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -21236,7 +21155,7 @@
       <c r="DZ76" s="1"/>
       <c r="EA76" s="1"/>
     </row>
-    <row r="77" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -21369,7 +21288,7 @@
       <c r="DZ77" s="1"/>
       <c r="EA77" s="1"/>
     </row>
-    <row r="78" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -21502,7 +21421,7 @@
       <c r="DZ78" s="1"/>
       <c r="EA78" s="1"/>
     </row>
-    <row r="79" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -21635,7 +21554,7 @@
       <c r="DZ79" s="1"/>
       <c r="EA79" s="1"/>
     </row>
-    <row r="80" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -21768,7 +21687,7 @@
       <c r="DZ80" s="1"/>
       <c r="EA80" s="1"/>
     </row>
-    <row r="81" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -21901,7 +21820,7 @@
       <c r="DZ81" s="1"/>
       <c r="EA81" s="1"/>
     </row>
-    <row r="82" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -22034,7 +21953,7 @@
       <c r="DZ82" s="1"/>
       <c r="EA82" s="1"/>
     </row>
-    <row r="83" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -22167,7 +22086,7 @@
       <c r="DZ83" s="1"/>
       <c r="EA83" s="1"/>
     </row>
-    <row r="84" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -22300,7 +22219,7 @@
       <c r="DZ84" s="1"/>
       <c r="EA84" s="1"/>
     </row>
-    <row r="85" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -22433,7 +22352,7 @@
       <c r="DZ85" s="1"/>
       <c r="EA85" s="1"/>
     </row>
-    <row r="86" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -22566,7 +22485,7 @@
       <c r="DZ86" s="1"/>
       <c r="EA86" s="1"/>
     </row>
-    <row r="87" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -22699,7 +22618,7 @@
       <c r="DZ87" s="1"/>
       <c r="EA87" s="1"/>
     </row>
-    <row r="88" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -22832,7 +22751,7 @@
       <c r="DZ88" s="1"/>
       <c r="EA88" s="1"/>
     </row>
-    <row r="89" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -22965,7 +22884,7 @@
       <c r="DZ89" s="1"/>
       <c r="EA89" s="1"/>
     </row>
-    <row r="90" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -23098,7 +23017,7 @@
       <c r="DZ90" s="1"/>
       <c r="EA90" s="1"/>
     </row>
-    <row r="91" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -23231,7 +23150,7 @@
       <c r="DZ91" s="1"/>
       <c r="EA91" s="1"/>
     </row>
-    <row r="92" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -23364,7 +23283,7 @@
       <c r="DZ92" s="1"/>
       <c r="EA92" s="1"/>
     </row>
-    <row r="93" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -23497,7 +23416,7 @@
       <c r="DZ93" s="1"/>
       <c r="EA93" s="1"/>
     </row>
-    <row r="94" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -23630,7 +23549,7 @@
       <c r="DZ94" s="1"/>
       <c r="EA94" s="1"/>
     </row>
-    <row r="95" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -23763,7 +23682,7 @@
       <c r="DZ95" s="1"/>
       <c r="EA95" s="1"/>
     </row>
-    <row r="96" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -23896,7 +23815,7 @@
       <c r="DZ96" s="1"/>
       <c r="EA96" s="1"/>
     </row>
-    <row r="97" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -24029,7 +23948,7 @@
       <c r="DZ97" s="1"/>
       <c r="EA97" s="1"/>
     </row>
-    <row r="98" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -24162,7 +24081,7 @@
       <c r="DZ98" s="1"/>
       <c r="EA98" s="1"/>
     </row>
-    <row r="99" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:131" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -24297,55 +24216,151 @@
     </row>
     <row r="100" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-      <c r="AR100" s="1"/>
-      <c r="AS100" s="1"/>
-      <c r="AT100" s="1"/>
-      <c r="AU100" s="1"/>
-      <c r="AV100" s="1"/>
-      <c r="AW100" s="1"/>
-      <c r="AX100" s="1"/>
+      <c r="B100" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="25">
+        <v>0</v>
+      </c>
+      <c r="E100" s="25">
+        <v>0</v>
+      </c>
+      <c r="F100" s="25">
+        <v>0</v>
+      </c>
+      <c r="G100" s="25">
+        <v>0</v>
+      </c>
+      <c r="H100" s="25">
+        <v>0</v>
+      </c>
+      <c r="I100" s="25">
+        <v>0</v>
+      </c>
+      <c r="J100" s="25">
+        <v>0</v>
+      </c>
+      <c r="K100" s="25">
+        <v>0</v>
+      </c>
+      <c r="L100" s="25">
+        <v>0</v>
+      </c>
+      <c r="M100" s="25">
+        <v>0</v>
+      </c>
+      <c r="N100" s="25">
+        <v>0</v>
+      </c>
+      <c r="O100" s="25">
+        <v>0</v>
+      </c>
+      <c r="P100" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="25">
+        <v>0</v>
+      </c>
+      <c r="R100" s="25">
+        <v>0</v>
+      </c>
+      <c r="S100" s="25">
+        <v>0</v>
+      </c>
+      <c r="T100" s="25">
+        <v>0</v>
+      </c>
+      <c r="U100" s="25">
+        <v>0</v>
+      </c>
+      <c r="V100" s="25">
+        <v>0</v>
+      </c>
+      <c r="W100" s="25">
+        <v>0</v>
+      </c>
+      <c r="X100" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="25">
+        <v>0</v>
+      </c>
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1"/>
@@ -35870,9 +35885,8 @@
       <c r="A187" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="90">
     <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="BM5:BM6"/>

--- a/Spr/xls_forms/F22_I.xlsx
+++ b/Spr/xls_forms/F22_I.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FC6A8A-0490-48FB-84D7-05D6AEE59D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F22(I)Control" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -643,7 +652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1261,75 +1270,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,14 +1297,83 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1509,7 +1518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,9 +1551,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1577,6 +1603,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1752,14 +1795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AQ33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="AH42" sqref="AH42:AX48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,76 +1815,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="75" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="75" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79" t="s">
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="80" t="s">
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="75" t="s">
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
       <c r="AY1" s="89" t="s">
         <v>91</v>
       </c>
@@ -1927,118 +1970,118 @@
       <c r="EA1" s="1"/>
     </row>
     <row r="2" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="96" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="75" t="s">
+      <c r="X2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="75" t="s">
+      <c r="Y2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="75" t="s">
+      <c r="Z2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="75" t="s">
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="82" t="s">
+      <c r="AE2" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="75" t="s">
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="75" t="s">
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" s="75" t="s">
+      <c r="AQ2" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" s="75" t="s">
+      <c r="AR2" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" s="75" t="s">
+      <c r="AS2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="75" t="s">
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="83" t="s">
+      <c r="AX2" s="98" t="s">
         <v>117</v>
       </c>
       <c r="AY2" s="89"/>
@@ -2124,96 +2167,96 @@
       <c r="EA2" s="1"/>
     </row>
     <row r="3" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="75" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="75" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="75" t="s">
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="75" t="s">
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="75" t="s">
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="AU3" s="85" t="s">
+      <c r="AU3" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="84"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="99"/>
       <c r="AY3" s="90"/>
       <c r="AZ3" s="90"/>
       <c r="BA3" s="90"/>
@@ -2297,60 +2340,60 @@
       <c r="EA3" s="1"/>
     </row>
     <row r="4" spans="1:131" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="3" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="84"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="99"/>
       <c r="AY4" s="87" t="s">
         <v>140</v>
       </c>
@@ -2361,24 +2404,24 @@
       <c r="BD4" s="88"/>
       <c r="BE4" s="88"/>
       <c r="BF4" s="88"/>
-      <c r="BG4" s="97" t="s">
+      <c r="BG4" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="BH4" s="97"/>
+      <c r="BH4" s="85"/>
       <c r="BI4" s="11" t="s">
         <v>142</v>
       </c>
       <c r="BJ4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BK4" s="92" t="s">
+      <c r="BK4" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93" t="s">
+      <c r="BL4" s="91"/>
+      <c r="BM4" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="93"/>
+      <c r="BN4" s="92"/>
       <c r="BO4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2572,70 +2615,70 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="94" t="s">
+      <c r="AY5" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="AZ5" s="95" t="s">
+      <c r="AZ5" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="BA5" s="95" t="s">
+      <c r="BA5" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="BB5" s="95" t="s">
+      <c r="BB5" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="BC5" s="95" t="s">
+      <c r="BC5" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="BD5" s="95" t="s">
+      <c r="BD5" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="BE5" s="95" t="s">
+      <c r="BE5" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="BF5" s="96" t="s">
+      <c r="BF5" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="BG5" s="97" t="s">
+      <c r="BG5" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="BH5" s="97" t="s">
+      <c r="BH5" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="BI5" s="98" t="s">
+      <c r="BI5" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="BJ5" s="98" t="s">
+      <c r="BJ5" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="BK5" s="107" t="s">
+      <c r="BK5" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="BL5" s="91" t="s">
+      <c r="BL5" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="BM5" s="105" t="s">
+      <c r="BM5" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="BN5" s="106" t="s">
+      <c r="BN5" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="BO5" s="91" t="s">
+      <c r="BO5" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="BP5" s="91" t="s">
+      <c r="BP5" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="BQ5" s="98" t="s">
+      <c r="BQ5" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="BR5" s="98" t="s">
+      <c r="BR5" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="BS5" s="98" t="s">
+      <c r="BS5" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="98" t="s">
+      <c r="BT5" s="75" t="s">
         <v>192</v>
       </c>
       <c r="BU5" s="1"/>
@@ -2849,28 +2892,28 @@
       <c r="AX6" s="14">
         <v>48</v>
       </c>
-      <c r="AY6" s="94"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="98"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="107"/>
-      <c r="BL6" s="91"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="91"/>
-      <c r="BQ6" s="98"/>
-      <c r="BR6" s="98"/>
-      <c r="BS6" s="98"/>
-      <c r="BT6" s="98"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="85"/>
+      <c r="BH6" s="85"/>
+      <c r="BI6" s="75"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="86"/>
+      <c r="BL6" s="84"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="83"/>
+      <c r="BO6" s="84"/>
+      <c r="BP6" s="84"/>
+      <c r="BQ6" s="75"/>
+      <c r="BR6" s="75"/>
+      <c r="BS6" s="75"/>
+      <c r="BT6" s="75"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
@@ -12959,194 +13002,53 @@
         <v>73</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="17">
-        <f>D8+D10</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
-        <f t="shared" ref="E42:AX42" si="22">E8+E10</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AP42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AR42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AS42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AT42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AU42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AW42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AX42" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
       <c r="AY42" s="44"/>
       <c r="AZ42" s="45"/>
       <c r="BA42" s="45"/>
@@ -13273,194 +13175,53 @@
         <v>75</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="17">
-        <f>D11+D30</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
-        <f>E11+E30</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" ref="F43:AX43" si="23">F11+F30</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AM43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AR43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AS43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AT43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AU43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AV43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AW43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AX43" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="17"/>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="17"/>
       <c r="AY43" s="44"/>
       <c r="AZ43" s="45"/>
       <c r="BA43" s="45"/>
@@ -13590,194 +13351,53 @@
         <v>77</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="17">
-        <f>D19+D20+D21+D22+D24</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
-        <f t="shared" ref="E44:AX44" si="24">E19+E20+E21+E22+E24</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AM44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AO44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AR44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AS44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AT44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AU44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AV44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AX44" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="17"/>
       <c r="AY44" s="44"/>
       <c r="AZ44" s="45"/>
       <c r="BA44" s="45"/>
@@ -13904,194 +13524,53 @@
         <v>79</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="17">
-        <f>D25</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
-        <f t="shared" ref="E45:AX45" si="25">E25</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AM45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AN45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AO45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AP45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AR45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AS45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AT45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AU45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AW45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AX45" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
       <c r="AY45" s="44"/>
       <c r="AZ45" s="45"/>
       <c r="BA45" s="45"/>
@@ -14218,194 +13697,53 @@
         <v>81</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="17">
-        <f>D27+Q46-Q27</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
-        <f>E27</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="17">
-        <f t="shared" ref="F46:P46" si="26">F27</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="17">
-        <f>$Q$32</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="17">
-        <f>$R$32</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="17">
-        <f t="shared" ref="S46:AX46" si="27">S27</f>
-        <v>0</v>
-      </c>
-      <c r="T46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AM46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AN46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AO46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AP46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AR46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AS46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AT46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AU46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AV46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AW46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AX46" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
       <c r="AY46" s="44"/>
       <c r="AZ46" s="46"/>
       <c r="BA46" s="46"/>
@@ -14532,194 +13870,53 @@
         <v>83</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="17">
-        <f>D28+V47-V28</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
-        <f>E28</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="17">
-        <f t="shared" ref="F47:AX47" si="28">F28</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="17">
-        <f>V32</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AM47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AN47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AO47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AP47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AR47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AS47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AT47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AU47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AV47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AW47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AX47" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="17"/>
+      <c r="AU47" s="17"/>
+      <c r="AV47" s="17"/>
+      <c r="AW47" s="17"/>
+      <c r="AX47" s="17"/>
       <c r="AY47" s="44"/>
       <c r="AZ47" s="46"/>
       <c r="BA47" s="46"/>
@@ -14846,194 +14043,53 @@
         <v>85</v>
       </c>
       <c r="C48" s="19"/>
-      <c r="D48" s="17">
-        <f>D29-D30-D31</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
-        <f t="shared" ref="E48:AX48" si="29">E29-E30-E31</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AP48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AR48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AS48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AT48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AU48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AV48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AW48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AX48" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="17"/>
+      <c r="AV48" s="17"/>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="17"/>
       <c r="AY48" s="44"/>
       <c r="AZ48" s="46"/>
       <c r="BA48" s="46"/>
@@ -15296,187 +14352,187 @@
         <v>0</v>
       </c>
       <c r="E50" s="72">
-        <f t="shared" ref="E50:AX50" si="30">E100-E52</f>
+        <f t="shared" ref="E50:AX50" si="22">E100-E52</f>
         <v>0</v>
       </c>
       <c r="F50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AK50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AL50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AM50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AO50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AQ50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AT50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AU50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AV50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AX50" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AY50" s="1"/>
@@ -15695,7 +14751,7 @@
       <c r="EA51" s="1"/>
     </row>
     <row r="52" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="76" t="s">
         <v>197</v>
       </c>
       <c r="B52" s="47" t="s">
@@ -15707,215 +14763,215 @@
         <v>0</v>
       </c>
       <c r="E52" s="28">
-        <f t="shared" ref="E52:AM52" si="31">E8+E10+E11+E19+E20+E21+E22+E24+E25+E27+E28+E29</f>
+        <f t="shared" ref="E52:AM52" si="23">E8+E10+E11+E19+E20+E21+E22+E24+E25+E27+E28+E29</f>
         <v>0</v>
       </c>
       <c r="F52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AE52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AG52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AH52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AI52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AK52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AL52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AM52" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AN52" s="29">
-        <f t="shared" ref="AN52:AX52" si="32">AN8+AN10+AN11+AN19+AN20+AN21+AN22+AN24+AN25+AN27+AN28+AN29</f>
+        <f t="shared" ref="AN52:AX52" si="24">AN8+AN10+AN11+AN19+AN20+AN21+AN22+AN24+AN25+AN27+AN28+AN29</f>
         <v>0</v>
       </c>
       <c r="AO52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP52" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AR52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AS52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AT52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AU52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AV52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AW52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AX52" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY52" s="29">
-        <f t="shared" ref="AY52:BE52" si="33">AY8+AY10+AY11+AY19+AY20+AY21+AY22+AY24+AY25+AY27+AY28+AY29</f>
+        <f t="shared" ref="AY52:BE52" si="25">AY8+AY10+AY11+AY19+AY20+AY21+AY22+AY24+AY25+AY27+AY28+AY29</f>
         <v>0</v>
       </c>
       <c r="AZ52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BA52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BB52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BC52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BD52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BE52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF52" s="1"/>
@@ -15994,7 +15050,7 @@
       <c r="EA52" s="1"/>
     </row>
     <row r="53" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="48" t="s">
         <v>199</v>
       </c>
@@ -16004,215 +15060,215 @@
         <v>0</v>
       </c>
       <c r="E53" s="51">
-        <f t="shared" ref="E53:AM53" si="34">E52-E32</f>
+        <f t="shared" ref="E53:AM53" si="26">E52-E32</f>
         <v>0</v>
       </c>
       <c r="F53" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G53" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I53" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J53" s="53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K53" s="53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AM53" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AN53" s="29">
-        <f t="shared" ref="AN53" si="35">AN52-AN32</f>
+        <f t="shared" ref="AN53" si="27">AN52-AN32</f>
         <v>0</v>
       </c>
       <c r="AO53" s="29">
-        <f t="shared" ref="AO53" si="36">AO52-AO32</f>
+        <f t="shared" ref="AO53" si="28">AO52-AO32</f>
         <v>0</v>
       </c>
       <c r="AP53" s="52">
-        <f t="shared" ref="AP53" si="37">AP52-AP32</f>
+        <f t="shared" ref="AP53" si="29">AP52-AP32</f>
         <v>0</v>
       </c>
       <c r="AQ53" s="52">
-        <f t="shared" ref="AQ53" si="38">AQ52-AQ32</f>
+        <f t="shared" ref="AQ53" si="30">AQ52-AQ32</f>
         <v>0</v>
       </c>
       <c r="AR53" s="29">
-        <f t="shared" ref="AR53" si="39">AR52-AR32</f>
+        <f t="shared" ref="AR53" si="31">AR52-AR32</f>
         <v>0</v>
       </c>
       <c r="AS53" s="29">
-        <f t="shared" ref="AS53" si="40">AS52-AS32</f>
+        <f t="shared" ref="AS53" si="32">AS52-AS32</f>
         <v>0</v>
       </c>
       <c r="AT53" s="29">
-        <f t="shared" ref="AT53" si="41">AT52-AT32</f>
+        <f t="shared" ref="AT53" si="33">AT52-AT32</f>
         <v>0</v>
       </c>
       <c r="AU53" s="29">
-        <f t="shared" ref="AU53" si="42">AU52-AU32</f>
+        <f t="shared" ref="AU53" si="34">AU52-AU32</f>
         <v>0</v>
       </c>
       <c r="AV53" s="29">
-        <f t="shared" ref="AV53" si="43">AV52-AV32</f>
+        <f t="shared" ref="AV53" si="35">AV52-AV32</f>
         <v>0</v>
       </c>
       <c r="AW53" s="29">
-        <f t="shared" ref="AW53" si="44">AW52-AW32</f>
+        <f t="shared" ref="AW53" si="36">AW52-AW32</f>
         <v>0</v>
       </c>
       <c r="AX53" s="29">
-        <f t="shared" ref="AX53" si="45">AX52-AX32</f>
+        <f t="shared" ref="AX53" si="37">AX52-AX32</f>
         <v>0</v>
       </c>
       <c r="AY53" s="29">
-        <f t="shared" ref="AY53" si="46">AY52-AY32</f>
+        <f t="shared" ref="AY53" si="38">AY52-AY32</f>
         <v>0</v>
       </c>
       <c r="AZ53" s="29">
-        <f t="shared" ref="AZ53" si="47">AZ52-AZ32</f>
+        <f t="shared" ref="AZ53" si="39">AZ52-AZ32</f>
         <v>0</v>
       </c>
       <c r="BA53" s="29">
-        <f t="shared" ref="BA53" si="48">BA52-BA32</f>
+        <f t="shared" ref="BA53" si="40">BA52-BA32</f>
         <v>0</v>
       </c>
       <c r="BB53" s="29">
-        <f t="shared" ref="BB53" si="49">BB52-BB32</f>
+        <f t="shared" ref="BB53" si="41">BB52-BB32</f>
         <v>0</v>
       </c>
       <c r="BC53" s="29">
-        <f t="shared" ref="BC53" si="50">BC52-BC32</f>
+        <f t="shared" ref="BC53" si="42">BC52-BC32</f>
         <v>0</v>
       </c>
       <c r="BD53" s="29">
-        <f t="shared" ref="BD53" si="51">BD52-BD32</f>
+        <f t="shared" ref="BD53" si="43">BD52-BD32</f>
         <v>0</v>
       </c>
       <c r="BE53" s="29">
-        <f t="shared" ref="BE53" si="52">BE52-BE32</f>
+        <f t="shared" ref="BE53" si="44">BE52-BE32</f>
         <v>0</v>
       </c>
       <c r="BF53" s="1"/>
@@ -16291,7 +15347,7 @@
       <c r="EA53" s="1"/>
     </row>
     <row r="54" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="49"/>
       <c r="C54" s="1"/>
       <c r="D54" s="31"/>
@@ -16424,7 +15480,7 @@
       <c r="EA54" s="1"/>
     </row>
     <row r="55" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="47" t="s">
         <v>200</v>
       </c>
@@ -16434,215 +15490,215 @@
         <v>0</v>
       </c>
       <c r="E55" s="28">
-        <f t="shared" ref="E55:AM55" si="53">SUM(E38:E41)</f>
+        <f t="shared" ref="E55:AM55" si="45">SUM(E38:E41)</f>
         <v>0</v>
       </c>
       <c r="F55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AC55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AD55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AF55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AG55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AH55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AI55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AK55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AL55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AM55" s="28">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AN55" s="29">
-        <f t="shared" ref="AN55:AX55" si="54">SUM(AN38:AN41)</f>
+        <f t="shared" ref="AN55:AX55" si="46">SUM(AN38:AN41)</f>
         <v>0</v>
       </c>
       <c r="AO55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AP55" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AR55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AS55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AT55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AU55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AV55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AX55" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AY55" s="29">
-        <f t="shared" ref="AY55:BE55" si="55">SUM(AY38:AY41)</f>
+        <f t="shared" ref="AY55:BE55" si="47">SUM(AY38:AY41)</f>
         <v>0</v>
       </c>
       <c r="AZ55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BA55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BB55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BC55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BD55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BE55" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BF55" s="1"/>
@@ -16721,7 +15777,7 @@
       <c r="EA55" s="1"/>
     </row>
     <row r="56" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="48" t="s">
         <v>201</v>
       </c>
@@ -16731,215 +15787,215 @@
         <v>0</v>
       </c>
       <c r="E56" s="30">
-        <f t="shared" ref="E56:AM56" si="56">E55-E37</f>
+        <f t="shared" ref="E56:AM56" si="48">E55-E37</f>
         <v>0</v>
       </c>
       <c r="F56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="X56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AC56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AD56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AF56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AG56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AI56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AK56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AL56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AM56" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN56" s="29">
-        <f t="shared" ref="AN56" si="57">AN55-AN37</f>
+        <f t="shared" ref="AN56" si="49">AN55-AN37</f>
         <v>0</v>
       </c>
       <c r="AO56" s="29">
-        <f t="shared" ref="AO56" si="58">AO55-AO37</f>
+        <f t="shared" ref="AO56" si="50">AO55-AO37</f>
         <v>0</v>
       </c>
       <c r="AP56" s="30">
-        <f t="shared" ref="AP56" si="59">AP55-AP37</f>
+        <f t="shared" ref="AP56" si="51">AP55-AP37</f>
         <v>0</v>
       </c>
       <c r="AQ56" s="30">
-        <f t="shared" ref="AQ56" si="60">AQ55-AQ37</f>
+        <f t="shared" ref="AQ56" si="52">AQ55-AQ37</f>
         <v>0</v>
       </c>
       <c r="AR56" s="29">
-        <f t="shared" ref="AR56" si="61">AR55-AR37</f>
+        <f t="shared" ref="AR56" si="53">AR55-AR37</f>
         <v>0</v>
       </c>
       <c r="AS56" s="29">
-        <f t="shared" ref="AS56" si="62">AS55-AS37</f>
+        <f t="shared" ref="AS56" si="54">AS55-AS37</f>
         <v>0</v>
       </c>
       <c r="AT56" s="29">
-        <f t="shared" ref="AT56" si="63">AT55-AT37</f>
+        <f t="shared" ref="AT56" si="55">AT55-AT37</f>
         <v>0</v>
       </c>
       <c r="AU56" s="29">
-        <f t="shared" ref="AU56" si="64">AU55-AU37</f>
+        <f t="shared" ref="AU56" si="56">AU55-AU37</f>
         <v>0</v>
       </c>
       <c r="AV56" s="29">
-        <f t="shared" ref="AV56" si="65">AV55-AV37</f>
+        <f t="shared" ref="AV56" si="57">AV55-AV37</f>
         <v>0</v>
       </c>
       <c r="AW56" s="29">
-        <f t="shared" ref="AW56" si="66">AW55-AW37</f>
+        <f t="shared" ref="AW56" si="58">AW55-AW37</f>
         <v>0</v>
       </c>
       <c r="AX56" s="29">
-        <f t="shared" ref="AX56" si="67">AX55-AX37</f>
+        <f t="shared" ref="AX56" si="59">AX55-AX37</f>
         <v>0</v>
       </c>
       <c r="AY56" s="29">
-        <f t="shared" ref="AY56" si="68">AY55-AY37</f>
+        <f t="shared" ref="AY56" si="60">AY55-AY37</f>
         <v>0</v>
       </c>
       <c r="AZ56" s="29">
-        <f t="shared" ref="AZ56" si="69">AZ55-AZ37</f>
+        <f t="shared" ref="AZ56" si="61">AZ55-AZ37</f>
         <v>0</v>
       </c>
       <c r="BA56" s="29">
-        <f t="shared" ref="BA56" si="70">BA55-BA37</f>
+        <f t="shared" ref="BA56" si="62">BA55-BA37</f>
         <v>0</v>
       </c>
       <c r="BB56" s="29">
-        <f t="shared" ref="BB56" si="71">BB55-BB37</f>
+        <f t="shared" ref="BB56" si="63">BB55-BB37</f>
         <v>0</v>
       </c>
       <c r="BC56" s="29">
-        <f t="shared" ref="BC56" si="72">BC55-BC37</f>
+        <f t="shared" ref="BC56" si="64">BC55-BC37</f>
         <v>0</v>
       </c>
       <c r="BD56" s="29">
-        <f t="shared" ref="BD56" si="73">BD55-BD37</f>
+        <f t="shared" ref="BD56" si="65">BD55-BD37</f>
         <v>0</v>
       </c>
       <c r="BE56" s="29">
-        <f t="shared" ref="BE56" si="74">BE55-BE37</f>
+        <f t="shared" ref="BE56" si="66">BE55-BE37</f>
         <v>0</v>
       </c>
       <c r="BF56" s="1"/>
@@ -17018,7 +16074,7 @@
       <c r="EA56" s="1"/>
     </row>
     <row r="57" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="27"/>
       <c r="C57" s="1"/>
       <c r="D57" s="26"/>
@@ -17151,7 +16207,7 @@
       <c r="EA57" s="1"/>
     </row>
     <row r="58" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="47" t="s">
         <v>202</v>
       </c>
@@ -17161,215 +16217,215 @@
         <v>0</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" ref="E58:AM58" si="75">E12+E13+E14+E15+E16+E17+E18</f>
+        <f t="shared" ref="E58:AM58" si="67">E12+E13+E14+E15+E16+E17+E18</f>
         <v>0</v>
       </c>
       <c r="F58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="K58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="U58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="V58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="W58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Z58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AA58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AB58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AD58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AE58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AF58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AG58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AH58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AI58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AM58" s="28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AN58" s="29">
-        <f t="shared" ref="AN58:AX58" si="76">AN12+AN13+AN14+AN15+AN16+AN17+AN18</f>
+        <f t="shared" ref="AN58:AX58" si="68">AN12+AN13+AN14+AN15+AN16+AN17+AN18</f>
         <v>0</v>
       </c>
       <c r="AO58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AP58" s="28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AQ58" s="28">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AR58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AS58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AT58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AU58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AV58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AW58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AX58" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AY58" s="29">
-        <f t="shared" ref="AY58:BE58" si="77">AY12+AY13+AY14+AY15+AY16+AY17+AY18</f>
+        <f t="shared" ref="AY58:BE58" si="69">AY12+AY13+AY14+AY15+AY16+AY17+AY18</f>
         <v>0</v>
       </c>
       <c r="AZ58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BA58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BB58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BC58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BD58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BE58" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BF58" s="1"/>
@@ -17448,7 +16504,7 @@
       <c r="EA58" s="1"/>
     </row>
     <row r="59" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="48" t="s">
         <v>203</v>
       </c>
@@ -17458,215 +16514,215 @@
         <v>0</v>
       </c>
       <c r="E59" s="30">
-        <f t="shared" ref="E59:AM59" si="78">E58-E11</f>
+        <f t="shared" ref="E59:AM59" si="70">E58-E11</f>
         <v>0</v>
       </c>
       <c r="F59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="S59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="U59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="V59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Z59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AA59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AB59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AC59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AD59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AF59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AG59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AH59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AI59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AK59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AL59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AM59" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AN59" s="29">
-        <f t="shared" ref="AN59" si="79">AN58-AN11</f>
+        <f t="shared" ref="AN59" si="71">AN58-AN11</f>
         <v>0</v>
       </c>
       <c r="AO59" s="29">
-        <f t="shared" ref="AO59" si="80">AO58-AO11</f>
+        <f t="shared" ref="AO59" si="72">AO58-AO11</f>
         <v>0</v>
       </c>
       <c r="AP59" s="30">
-        <f t="shared" ref="AP59" si="81">AP58-AP11</f>
+        <f t="shared" ref="AP59" si="73">AP58-AP11</f>
         <v>0</v>
       </c>
       <c r="AQ59" s="30">
-        <f t="shared" ref="AQ59" si="82">AQ58-AQ11</f>
+        <f t="shared" ref="AQ59" si="74">AQ58-AQ11</f>
         <v>0</v>
       </c>
       <c r="AR59" s="29">
-        <f t="shared" ref="AR59" si="83">AR58-AR11</f>
+        <f t="shared" ref="AR59" si="75">AR58-AR11</f>
         <v>0</v>
       </c>
       <c r="AS59" s="29">
-        <f t="shared" ref="AS59" si="84">AS58-AS11</f>
+        <f t="shared" ref="AS59" si="76">AS58-AS11</f>
         <v>0</v>
       </c>
       <c r="AT59" s="29">
-        <f t="shared" ref="AT59" si="85">AT58-AT11</f>
+        <f t="shared" ref="AT59" si="77">AT58-AT11</f>
         <v>0</v>
       </c>
       <c r="AU59" s="29">
-        <f t="shared" ref="AU59" si="86">AU58-AU11</f>
+        <f t="shared" ref="AU59" si="78">AU58-AU11</f>
         <v>0</v>
       </c>
       <c r="AV59" s="29">
-        <f t="shared" ref="AV59" si="87">AV58-AV11</f>
+        <f t="shared" ref="AV59" si="79">AV58-AV11</f>
         <v>0</v>
       </c>
       <c r="AW59" s="29">
-        <f t="shared" ref="AW59" si="88">AW58-AW11</f>
+        <f t="shared" ref="AW59" si="80">AW58-AW11</f>
         <v>0</v>
       </c>
       <c r="AX59" s="29">
-        <f t="shared" ref="AX59" si="89">AX58-AX11</f>
+        <f t="shared" ref="AX59" si="81">AX58-AX11</f>
         <v>0</v>
       </c>
       <c r="AY59" s="29">
-        <f t="shared" ref="AY59" si="90">AY58-AY11</f>
+        <f t="shared" ref="AY59" si="82">AY58-AY11</f>
         <v>0</v>
       </c>
       <c r="AZ59" s="29">
-        <f t="shared" ref="AZ59" si="91">AZ58-AZ11</f>
+        <f t="shared" ref="AZ59" si="83">AZ58-AZ11</f>
         <v>0</v>
       </c>
       <c r="BA59" s="29">
-        <f t="shared" ref="BA59" si="92">BA58-BA11</f>
+        <f t="shared" ref="BA59" si="84">BA58-BA11</f>
         <v>0</v>
       </c>
       <c r="BB59" s="29">
-        <f t="shared" ref="BB59" si="93">BB58-BB11</f>
+        <f t="shared" ref="BB59" si="85">BB58-BB11</f>
         <v>0</v>
       </c>
       <c r="BC59" s="29">
-        <f t="shared" ref="BC59" si="94">BC58-BC11</f>
+        <f t="shared" ref="BC59" si="86">BC58-BC11</f>
         <v>0</v>
       </c>
       <c r="BD59" s="29">
-        <f t="shared" ref="BD59" si="95">BD58-BD11</f>
+        <f t="shared" ref="BD59" si="87">BD58-BD11</f>
         <v>0</v>
       </c>
       <c r="BE59" s="29">
-        <f t="shared" ref="BE59" si="96">BE58-BE11</f>
+        <f t="shared" ref="BE59" si="88">BE58-BE11</f>
         <v>0</v>
       </c>
       <c r="BF59" s="1"/>
@@ -17888,215 +16944,215 @@
         <v>0</v>
       </c>
       <c r="E61" s="34">
-        <f t="shared" ref="E61:BE61" si="97">F8-F9</f>
+        <f t="shared" ref="E61:BE61" si="89">F8-F9</f>
         <v>0</v>
       </c>
       <c r="F61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="G61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="H61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="I61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="J61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="K61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="M61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="T61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="U61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="V61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="W61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="X61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Z61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AA61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AB61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AC61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AD61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AE61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AF61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AG61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AH61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AI61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AK61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AL61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AM61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AN61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AO61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AP61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AR61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AS61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AT61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AU61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AV61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AW61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AX61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AY61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AZ61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BA61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BB61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BC61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BD61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BE61" s="34">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BF61" s="1"/>
@@ -18318,215 +17374,215 @@
         <v>0</v>
       </c>
       <c r="E63" s="34">
-        <f t="shared" ref="E63:BE63" si="98">E25-E26</f>
+        <f t="shared" ref="E63:BE63" si="90">E25-E26</f>
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="G63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="I63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="J63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="K63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="L63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="N63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Q63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="R63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="T63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="U63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="X63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Y63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Z63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AA63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AB63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AC63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AD63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AF63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AG63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AH63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AI63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AK63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AL63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AM63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AN63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AO63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AP63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AR63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AS63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AT63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AU63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AV63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AW63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AX63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AY63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AZ63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BA63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BB63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BC63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BD63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BE63" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BF63" s="1"/>
@@ -18748,215 +17804,215 @@
         <v>0</v>
       </c>
       <c r="E65" s="34">
-        <f t="shared" ref="E65:BE65" si="99">E29-E30-E31</f>
+        <f t="shared" ref="E65:BE65" si="91">E29-E30-E31</f>
         <v>0</v>
       </c>
       <c r="F65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="G65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="I65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="J65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="K65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="L65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="M65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="N65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Q65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="R65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="U65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="V65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="W65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="X65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Y65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Z65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AA65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AB65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AE65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AF65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AG65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AH65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AI65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AK65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AL65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AM65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AN65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AO65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AP65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AR65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AS65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AT65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AU65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AV65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AW65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AX65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AY65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AZ65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BA65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BB65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BC65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BD65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BE65" s="34">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BF65" s="1"/>
@@ -19169,7 +18225,7 @@
     </row>
     <row r="67" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="79" t="s">
         <v>207</v>
       </c>
       <c r="C67" s="32"/>
@@ -19178,183 +18234,183 @@
         <v>0</v>
       </c>
       <c r="E67" s="35">
-        <f t="shared" ref="E67:AW67" si="100">SUM(E68:E70)</f>
+        <f t="shared" ref="E67:AW67" si="92">SUM(E68:E70)</f>
         <v>0</v>
       </c>
       <c r="F67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="G67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="H67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="J67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="K67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="M67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="N67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="T67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="U67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="X67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Y67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Z67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AA67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AB67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AC67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AD67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AF67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AH67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AI67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AK67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AL67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AM67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AN67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AO67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AP67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AR67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AS67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AT67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AU67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AV67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AW67" s="35">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AX67" s="1"/>
@@ -19442,190 +18498,190 @@
     </row>
     <row r="68" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="103"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="15"/>
       <c r="D68" s="36">
         <f>D38</f>
         <v>0</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" ref="E68:AW68" si="101">E38</f>
+        <f t="shared" ref="E68:AW68" si="93">E38</f>
         <v>0</v>
       </c>
       <c r="F68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="R68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="S68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="T68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="U68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="V68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="W68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="X68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Y68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Z68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AA68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AB68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AC68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AD68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AE68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AF68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AH68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AI68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AK68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AL68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AM68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AN68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AO68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AP68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AR68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AS68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AT68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AU68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AV68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW68" s="36">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AX68" s="1"/>
@@ -19713,190 +18769,190 @@
     </row>
     <row r="69" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="103"/>
+      <c r="B69" s="80"/>
       <c r="C69" s="15"/>
       <c r="D69" s="36">
         <f>D39</f>
         <v>0</v>
       </c>
       <c r="E69" s="36">
-        <f t="shared" ref="E69:AW69" si="102">E39</f>
+        <f t="shared" ref="E69:AW69" si="94">E39</f>
         <v>0</v>
       </c>
       <c r="F69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="G69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="J69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="K69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="L69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="M69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="N69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="S69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="T69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="V69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="W69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="X69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Y69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Z69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AA69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AB69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AC69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AD69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AE69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AF69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AG69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AH69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AI69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AK69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AL69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AM69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AN69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AO69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AP69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AR69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AS69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AT69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AU69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AV69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AW69" s="36">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX69" s="1"/>
@@ -19987,190 +19043,190 @@
     </row>
     <row r="70" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="103"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="15"/>
       <c r="D70" s="36">
         <f>D40</f>
         <v>0</v>
       </c>
       <c r="E70" s="36">
-        <f t="shared" ref="E70:AW70" si="103">E40</f>
+        <f t="shared" ref="E70:AW70" si="95">E40</f>
         <v>0</v>
       </c>
       <c r="F70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="J70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="K70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="L70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="M70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="U70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="V70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="X70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Y70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Z70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AA70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AB70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AC70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AD70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AE70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AF70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AG70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AH70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AI70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AK70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AL70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AM70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AN70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AO70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AP70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AR70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AS70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AT70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AU70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AV70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AW70" s="36">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AX70" s="1"/>
@@ -20261,7 +19317,7 @@
     </row>
     <row r="71" spans="1:131" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="104"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33">
         <v>0</v>
@@ -35886,60 +34942,26 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="AY4:BF4"/>
-    <mergeCell ref="AY1:BS3"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="W1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
@@ -35956,26 +34978,60 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AN4"/>
     <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AY4:BF4"/>
+    <mergeCell ref="AY1:BS3"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C48">
     <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">

--- a/Spr/xls_forms/F22_I.xlsx
+++ b/Spr/xls_forms/F22_I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FC6A8A-0490-48FB-84D7-05D6AEE59D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FD8F6-97D5-48C2-926E-DCF9F5A93754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,6 +1270,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,77 +1366,8 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1799,10 +1799,10 @@
   <dimension ref="A1:EA187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AQ33" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH42" sqref="AH42:AX48"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,76 +1815,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="96" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="96" t="s">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="104" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="105" t="s">
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="96" t="s">
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
       <c r="AY1" s="89" t="s">
         <v>91</v>
       </c>
@@ -1970,118 +1970,118 @@
       <c r="EA1" s="1"/>
     </row>
     <row r="2" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="75" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="96" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="96" t="s">
+      <c r="R2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="96" t="s">
+      <c r="S2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="96" t="s">
+      <c r="T2" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="96" t="s">
+      <c r="U2" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="96" t="s">
+      <c r="V2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="96" t="s">
+      <c r="W2" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="96" t="s">
+      <c r="X2" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="96" t="s">
+      <c r="Y2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="96" t="s">
+      <c r="Z2" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="96" t="s">
+      <c r="AA2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="96" t="s">
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="102" t="s">
+      <c r="AE2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="96" t="s">
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="96" t="s">
+      <c r="AK2" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="96" t="s">
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="96" t="s">
+      <c r="AO2" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="96" t="s">
+      <c r="AP2" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" s="96" t="s">
+      <c r="AQ2" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" s="96" t="s">
+      <c r="AR2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" s="96" t="s">
+      <c r="AS2" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="96" t="s">
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="98" t="s">
+      <c r="AX2" s="83" t="s">
         <v>117</v>
       </c>
       <c r="AY2" s="89"/>
@@ -2167,96 +2167,96 @@
       <c r="EA2" s="1"/>
     </row>
     <row r="3" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="96" t="s">
+      <c r="P3" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="96" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" s="96" t="s">
+      <c r="AB3" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" s="96" t="s">
+      <c r="AC3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="96" t="s">
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="AF3" s="96" t="s">
+      <c r="AF3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="96" t="s">
+      <c r="AG3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="AH3" s="96" t="s">
+      <c r="AH3" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="AI3" s="96" t="s">
+      <c r="AI3" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="96" t="s">
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="96" t="s">
+      <c r="AL3" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="96" t="s">
+      <c r="AM3" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="96" t="s">
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="AT3" s="96" t="s">
+      <c r="AT3" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="AU3" s="100" t="s">
+      <c r="AU3" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AV3" s="96" t="s">
+      <c r="AV3" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="99"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="84"/>
       <c r="AY3" s="90"/>
       <c r="AZ3" s="90"/>
       <c r="BA3" s="90"/>
@@ -2340,60 +2340,60 @@
       <c r="EA3" s="1"/>
     </row>
     <row r="4" spans="1:131" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="3" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="99"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="84"/>
       <c r="AY4" s="87" t="s">
         <v>140</v>
       </c>
@@ -2404,24 +2404,24 @@
       <c r="BD4" s="88"/>
       <c r="BE4" s="88"/>
       <c r="BF4" s="88"/>
-      <c r="BG4" s="85" t="s">
+      <c r="BG4" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="BH4" s="85"/>
+      <c r="BH4" s="97"/>
       <c r="BI4" s="11" t="s">
         <v>142</v>
       </c>
       <c r="BJ4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BK4" s="91" t="s">
+      <c r="BK4" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="BL4" s="91"/>
-      <c r="BM4" s="92" t="s">
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="92"/>
+      <c r="BN4" s="93"/>
       <c r="BO4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2615,70 +2615,70 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="93" t="s">
+      <c r="AY5" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="AZ5" s="94" t="s">
+      <c r="AZ5" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="BA5" s="94" t="s">
+      <c r="BA5" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="BB5" s="94" t="s">
+      <c r="BB5" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="BC5" s="94" t="s">
+      <c r="BC5" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="BD5" s="94" t="s">
+      <c r="BD5" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="BE5" s="94" t="s">
+      <c r="BE5" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="BF5" s="95" t="s">
+      <c r="BF5" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="BG5" s="85" t="s">
+      <c r="BG5" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="BH5" s="85" t="s">
+      <c r="BH5" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BI5" s="75" t="s">
+      <c r="BI5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BJ5" s="75" t="s">
+      <c r="BJ5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BK5" s="86" t="s">
+      <c r="BK5" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="BL5" s="84" t="s">
+      <c r="BL5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BM5" s="82" t="s">
+      <c r="BM5" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="BN5" s="83" t="s">
+      <c r="BN5" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="BO5" s="84" t="s">
+      <c r="BO5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BP5" s="84" t="s">
+      <c r="BP5" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="BQ5" s="75" t="s">
+      <c r="BQ5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BR5" s="75" t="s">
+      <c r="BR5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BS5" s="75" t="s">
+      <c r="BS5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="BT5" s="75" t="s">
+      <c r="BT5" s="98" t="s">
         <v>192</v>
       </c>
       <c r="BU5" s="1"/>
@@ -2892,28 +2892,28 @@
       <c r="AX6" s="14">
         <v>48</v>
       </c>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="94"/>
-      <c r="BA6" s="94"/>
-      <c r="BB6" s="94"/>
-      <c r="BC6" s="94"/>
-      <c r="BD6" s="94"/>
-      <c r="BE6" s="94"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="85"/>
-      <c r="BH6" s="85"/>
-      <c r="BI6" s="75"/>
-      <c r="BJ6" s="75"/>
-      <c r="BK6" s="86"/>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="83"/>
-      <c r="BO6" s="84"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="75"/>
-      <c r="BR6" s="75"/>
-      <c r="BS6" s="75"/>
-      <c r="BT6" s="75"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="98"/>
+      <c r="BJ6" s="98"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="98"/>
+      <c r="BR6" s="98"/>
+      <c r="BS6" s="98"/>
+      <c r="BT6" s="98"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
@@ -14751,7 +14751,7 @@
       <c r="EA51" s="1"/>
     </row>
     <row r="52" spans="1:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="99" t="s">
         <v>197</v>
       </c>
       <c r="B52" s="47" t="s">
@@ -15050,7 +15050,7 @@
       <c r="EA52" s="1"/>
     </row>
     <row r="53" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="48" t="s">
         <v>199</v>
       </c>
@@ -15347,7 +15347,7 @@
       <c r="EA53" s="1"/>
     </row>
     <row r="54" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="49"/>
       <c r="C54" s="1"/>
       <c r="D54" s="31"/>
@@ -15480,7 +15480,7 @@
       <c r="EA54" s="1"/>
     </row>
     <row r="55" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="47" t="s">
         <v>200</v>
       </c>
@@ -15777,7 +15777,7 @@
       <c r="EA55" s="1"/>
     </row>
     <row r="56" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="48" t="s">
         <v>201</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="EA56" s="1"/>
     </row>
     <row r="57" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="27"/>
       <c r="C57" s="1"/>
       <c r="D57" s="26"/>
@@ -16207,7 +16207,7 @@
       <c r="EA57" s="1"/>
     </row>
     <row r="58" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="47" t="s">
         <v>202</v>
       </c>
@@ -16504,7 +16504,7 @@
       <c r="EA58" s="1"/>
     </row>
     <row r="59" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="48" t="s">
         <v>203</v>
       </c>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="67" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="102" t="s">
         <v>207</v>
       </c>
       <c r="C67" s="32"/>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="68" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="80"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="15"/>
       <c r="D68" s="36">
         <f>D38</f>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="69" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="80"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="15"/>
       <c r="D69" s="36">
         <f>D39</f>
@@ -19043,7 +19043,7 @@
     </row>
     <row r="70" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="80"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="15"/>
       <c r="D70" s="36">
         <f>D40</f>
@@ -19317,7 +19317,7 @@
     </row>
     <row r="71" spans="1:131" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="81"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33">
         <v>0</v>
@@ -34942,26 +34942,60 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="AY4:BF4"/>
+    <mergeCell ref="AY1:BS3"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="W2:W4"/>
     <mergeCell ref="W1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
@@ -34978,60 +35012,26 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AN4"/>
     <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AY4:BF4"/>
-    <mergeCell ref="AY1:BS3"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C48">
     <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">
